--- a/tut05/output/0501ME20.xlsx
+++ b/tut05/output/0501ME20.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.326530612244898</v>
+        <v>7.33</v>
       </c>
       <c r="C6" t="n">
-        <v>7.068181818181818</v>
+        <v>7.07</v>
       </c>
       <c r="D6" t="n">
-        <v>7.127659574468085</v>
+        <v>7.13</v>
       </c>
       <c r="E6" t="n">
-        <v>7.306122448979592</v>
+        <v>7.31</v>
       </c>
       <c r="F6" t="n">
-        <v>6.695652173913044</v>
+        <v>6.7</v>
       </c>
       <c r="G6" t="n">
-        <v>6.739130434782608</v>
+        <v>6.74</v>
       </c>
       <c r="H6" t="n">
         <v>8.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.326530612244898</v>
+        <v>7.33</v>
       </c>
       <c r="C8" t="n">
-        <v>7.204301075268817</v>
+        <v>7.2</v>
       </c>
       <c r="D8" t="n">
-        <v>7.178571428571429</v>
+        <v>7.18</v>
       </c>
       <c r="E8" t="n">
-        <v>7.211640211640212</v>
+        <v>7.21</v>
       </c>
       <c r="F8" t="n">
-        <v>7.110638297872341</v>
+        <v>7.11</v>
       </c>
       <c r="G8" t="n">
-        <v>7.049822064056939</v>
+        <v>7.05</v>
       </c>
       <c r="H8" t="n">
-        <v>7.180685358255452</v>
+        <v>7.18</v>
       </c>
       <c r="I8" t="n">
-        <v>7.265927977839335</v>
+        <v>7.27</v>
       </c>
     </row>
   </sheetData>
